--- a/Flight Data.xlsx
+++ b/Flight Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4BC9C4B-8EE6-4140-8CC1-624E5F109F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504A4773-80BF-4BE5-AAB4-9398059670B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="660" windowWidth="21840" windowHeight="13140" xr2:uid="{9E294727-89EF-4597-878F-7D05C921CFB0}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:D13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,171 +461,171 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>69.099999999999994</v>
+        <v>52.5</v>
       </c>
       <c r="C2" s="2">
-        <v>71.7</v>
+        <v>54.1</v>
       </c>
       <c r="D2" s="2">
-        <v>73.7</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>65.599999999999994</v>
+        <v>51.1</v>
       </c>
       <c r="C3" s="2">
-        <v>65.8</v>
+        <v>51.1</v>
       </c>
       <c r="D3" s="2">
-        <v>69.8</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>79.099999999999994</v>
+        <v>61.6</v>
       </c>
       <c r="C4" s="2">
-        <v>81.900000000000006</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
-        <v>86.3</v>
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>75.599999999999994</v>
+        <v>58.9</v>
       </c>
       <c r="C5" s="2">
-        <v>79.900000000000006</v>
+        <v>61.1</v>
       </c>
       <c r="D5" s="2">
-        <v>83.6</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>80.7</v>
+        <v>62.8</v>
       </c>
       <c r="C6" s="2">
-        <v>83.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D6" s="2">
-        <v>87.9</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>84.3</v>
+        <v>64.8</v>
       </c>
       <c r="C7" s="2">
-        <v>87.5</v>
+        <v>66.7</v>
       </c>
       <c r="D7" s="2">
-        <v>92.3</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>87.7</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C8" s="2">
-        <v>91.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D8" s="2">
-        <v>96.1</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>84.3</v>
+        <v>63.5</v>
       </c>
       <c r="C9" s="2">
-        <v>88.7</v>
+        <v>66.7</v>
       </c>
       <c r="D9" s="2">
-        <v>93</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>75.900000000000006</v>
+        <v>58.6</v>
       </c>
       <c r="C10" s="2">
-        <v>74.599999999999994</v>
+        <v>57.1</v>
       </c>
       <c r="D10" s="2">
-        <v>78.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>78.7</v>
+        <v>61.7</v>
       </c>
       <c r="C11" s="2">
-        <v>82.3</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D11" s="2">
-        <v>85.3</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>75</v>
+        <v>59.3</v>
       </c>
       <c r="C12" s="2">
-        <v>78.400000000000006</v>
+        <v>61.9</v>
       </c>
       <c r="D12" s="2">
-        <v>82.1</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>77.3</v>
+        <v>59.2</v>
       </c>
       <c r="C13" s="2">
-        <v>79.900000000000006</v>
+        <v>61.4</v>
       </c>
       <c r="D13" s="2">
-        <v>82.9</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
